--- a/data_output/shift_kosong.xlsx
+++ b/data_output/shift_kosong.xlsx
@@ -1627,7 +1627,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>3331</v>
+        <v>3339</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3332</v>
+        <v>3340</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>4574</v>
+        <v>4582</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>4575</v>
+        <v>4583</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>4576</v>
+        <v>4584</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>6265</v>
+        <v>6278</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>6266</v>
+        <v>6279</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>6267</v>
+        <v>6280</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>7619</v>
+        <v>7634</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>7620</v>
+        <v>7635</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>

--- a/data_output/shift_kosong.xlsx
+++ b/data_output/shift_kosong.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>1513</v>
+        <v>1777</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1636,17 +1636,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Axton Abensa</t>
+          <t>Iwa Maryana</t>
         </is>
       </c>
       <c r="D19" t="n">
         <v>2019</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>AC1915-0123</t>
+          <t>AC1917-0223</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1681,41 +1681,41 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Granulator GRN1004</t>
+          <t>Giling Gula GLG1002</t>
         </is>
       </c>
       <c r="O19" s="2" t="n">
-        <v>43568.26041666666</v>
+        <v>43589.125</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>43568.3125</v>
+        <v>43589.1875</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>1514</v>
+        <v>4777</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Utility</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Axton Abensa</t>
+          <t>Alpiansyah</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>2019</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>overtime</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>AC1915-0121</t>
+          <t>AC1921-0034</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1745,36 +1745,36 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Air Handling</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Granulator GRN1007</t>
+          <t>Air Conditioner ACD1148</t>
         </is>
       </c>
       <c r="O20" s="2" t="n">
-        <v>43568.36458333334</v>
+        <v>43610.27083333334</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>43568.39583333334</v>
+        <v>43610.41666666666</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>1777</v>
+        <v>4778</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Utility</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Iwa Maryana</t>
+          <t>Alpiansyah</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1784,7 +1784,7 @@
         <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>overtime</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>AC1917-0223</t>
+          <t>AC1921-0034</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1814,46 +1814,46 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Air Handling</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Giling Gula GLG1002</t>
+          <t>Air Conditioner ACD1148</t>
         </is>
       </c>
       <c r="O21" s="2" t="n">
-        <v>43589.125</v>
+        <v>43610.4375</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>43589.1875</v>
+        <v>43610.45833333334</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>1926</v>
+        <v>6037</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Utility</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Riyadi Anwari</t>
+          <t>Dede Sulaeman</t>
         </is>
       </c>
       <c r="D22" t="n">
         <v>2019</v>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F22" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>overtime</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>AC1915-0123</t>
+          <t>AC1920-0128</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1883,46 +1883,46 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Air Handling</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Granulator GRN1004</t>
+          <t>Air Conditioner ACD1123</t>
         </is>
       </c>
       <c r="O22" s="2" t="n">
-        <v>43568.26041666666</v>
+        <v>43610.57291666666</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>43568.3125</v>
+        <v>43610.63541666666</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>1927</v>
+        <v>6038</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Utility</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Riyadi Anwari</t>
+          <t>Dede Sulaeman</t>
         </is>
       </c>
       <c r="D23" t="n">
         <v>2019</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F23" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>overtime</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>AC1915-0121</t>
+          <t>AC1920-0128</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1952,36 +1952,36 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Air Handling</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Granulator GRN1007</t>
+          <t>Air Conditioner ACD1123</t>
         </is>
       </c>
       <c r="O23" s="2" t="n">
-        <v>43568.36458333334</v>
+        <v>43610.64583333334</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>43568.39583333334</v>
+        <v>43610.72916666666</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>2023</v>
+        <v>6039</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Utility</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Riyadi Anwari</t>
+          <t>Dede Sulaeman</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2011,46 +2011,46 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>AC1921-0011</t>
+          <t>AC1920-0128</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>progress</t>
+          <t>done</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Air Handling</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Mixer MXR1009</t>
+          <t>Air Conditioner ACD1123</t>
         </is>
       </c>
       <c r="O24" s="2" t="n">
-        <v>43611.29166666666</v>
+        <v>43610.77083333334</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>43611.41666666666</v>
+        <v>43610.83333333334</v>
       </c>
       <c r="Q24" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>2024</v>
+        <v>7764</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Utility</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Riyadi Anwari</t>
+          <t>Rahmadhiyanto</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -2064,7 +2064,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2080,56 +2080,56 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>AC1921-0011</t>
+          <t>AC1920-0128</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>progress</t>
+          <t>done</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Air Handling</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Mixer MXR1009</t>
+          <t>Air Conditioner ACD1123</t>
         </is>
       </c>
       <c r="O25" s="2" t="n">
-        <v>43611.4375</v>
+        <v>43610.57291666666</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>43611.60416666666</v>
+        <v>43610.63541666666</v>
       </c>
       <c r="Q25" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>2055</v>
+        <v>7765</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Utility</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>misar</t>
+          <t>Rahmadhiyanto</t>
         </is>
       </c>
       <c r="D26" t="n">
         <v>2019</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F26" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>overtime</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>AC1915-0123</t>
+          <t>AC1920-0128</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2159,46 +2159,46 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Air Handling</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Granulator GRN1004</t>
+          <t>Air Conditioner ACD1123</t>
         </is>
       </c>
       <c r="O26" s="2" t="n">
-        <v>43568.26041666666</v>
+        <v>43610.64583333334</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>43568.3125</v>
+        <v>43610.72916666666</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>2056</v>
+        <v>7766</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Utility</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>misar</t>
+          <t>Rahmadhiyanto</t>
         </is>
       </c>
       <c r="D27" t="n">
         <v>2019</v>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F27" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>overtime</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>AC1915-0121</t>
+          <t>AC1920-0128</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2228,27 +2228,27 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Air Handling</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Granulator GRN1007</t>
+          <t>Air Conditioner ACD1123</t>
         </is>
       </c>
       <c r="O27" s="2" t="n">
-        <v>43568.36458333334</v>
+        <v>43610.77083333334</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>43568.39583333334</v>
+        <v>43610.83333333334</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>4752</v>
+        <v>9141</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Alpiansyah</t>
+          <t>Wahyudin</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -2317,7 +2317,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>4753</v>
+        <v>9142</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Alpiansyah</t>
+          <t>Wahyudin</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -2381,558 +2381,6 @@
         <v>43610.45833333334</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>5998</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Utility</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Dede Sulaeman</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E30" t="n">
-        <v>5</v>
-      </c>
-      <c r="F30" t="n">
-        <v>21</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>overtime</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Repair</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>AC1920-0128</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>Air Handling</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Air Conditioner ACD1123</t>
-        </is>
-      </c>
-      <c r="O30" s="2" t="n">
-        <v>43610.57291666666</v>
-      </c>
-      <c r="P30" s="2" t="n">
-        <v>43610.63541666666</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>5999</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Utility</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Dede Sulaeman</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E31" t="n">
-        <v>5</v>
-      </c>
-      <c r="F31" t="n">
-        <v>21</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>overtime</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Repair</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>AC1920-0128</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>Air Handling</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Air Conditioner ACD1123</t>
-        </is>
-      </c>
-      <c r="O31" s="2" t="n">
-        <v>43610.64583333334</v>
-      </c>
-      <c r="P31" s="2" t="n">
-        <v>43610.72916666666</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>6000</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Utility</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Dede Sulaeman</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E32" t="n">
-        <v>5</v>
-      </c>
-      <c r="F32" t="n">
-        <v>21</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>overtime</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Repair</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>AC1920-0128</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>Air Handling</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Air Conditioner ACD1123</t>
-        </is>
-      </c>
-      <c r="O32" s="2" t="n">
-        <v>43610.77083333334</v>
-      </c>
-      <c r="P32" s="2" t="n">
-        <v>43610.83333333334</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>7706</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Utility</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Rahmadhiyanto</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E33" t="n">
-        <v>5</v>
-      </c>
-      <c r="F33" t="n">
-        <v>21</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>overtime</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Repair</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>AC1920-0128</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>Air Handling</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>Air Conditioner ACD1123</t>
-        </is>
-      </c>
-      <c r="O33" s="2" t="n">
-        <v>43610.57291666666</v>
-      </c>
-      <c r="P33" s="2" t="n">
-        <v>43610.63541666666</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>7707</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Utility</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Rahmadhiyanto</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E34" t="n">
-        <v>5</v>
-      </c>
-      <c r="F34" t="n">
-        <v>21</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>overtime</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Repair</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>AC1920-0128</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>Air Handling</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>Air Conditioner ACD1123</t>
-        </is>
-      </c>
-      <c r="O34" s="2" t="n">
-        <v>43610.64583333334</v>
-      </c>
-      <c r="P34" s="2" t="n">
-        <v>43610.72916666666</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>7708</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Utility</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Rahmadhiyanto</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E35" t="n">
-        <v>5</v>
-      </c>
-      <c r="F35" t="n">
-        <v>21</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>overtime</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Repair</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>AC1920-0128</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>Air Handling</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>Air Conditioner ACD1123</t>
-        </is>
-      </c>
-      <c r="O35" s="2" t="n">
-        <v>43610.77083333334</v>
-      </c>
-      <c r="P35" s="2" t="n">
-        <v>43610.83333333334</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>9076</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Utility</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Wahyudin</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E36" t="n">
-        <v>5</v>
-      </c>
-      <c r="F36" t="n">
-        <v>21</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>overtime</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Repair</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>AC1921-0034</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>Air Handling</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>Air Conditioner ACD1148</t>
-        </is>
-      </c>
-      <c r="O36" s="2" t="n">
-        <v>43610.27083333334</v>
-      </c>
-      <c r="P36" s="2" t="n">
-        <v>43610.41666666666</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>9077</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Utility</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Wahyudin</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E37" t="n">
-        <v>5</v>
-      </c>
-      <c r="F37" t="n">
-        <v>21</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>overtime</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Repair</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>AC1921-0034</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>Air Handling</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>Air Conditioner ACD1148</t>
-        </is>
-      </c>
-      <c r="O37" s="2" t="n">
-        <v>43610.4375</v>
-      </c>
-      <c r="P37" s="2" t="n">
-        <v>43610.45833333334</v>
-      </c>
-      <c r="Q37" t="n">
         <v>0.5</v>
       </c>
     </row>

--- a/data_output/shift_kosong.xlsx
+++ b/data_output/shift_kosong.xlsx
@@ -454,7 +454,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>742</v>
+        <v>752</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>743</v>
+        <v>753</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>850</v>
+        <v>860</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>851</v>
+        <v>861</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>1108</v>
+        <v>1122</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -799,7 +799,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>1109</v>
+        <v>1123</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>1110</v>
+        <v>1124</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>1111</v>
+        <v>1125</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>1182</v>
+        <v>1202</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>1183</v>
+        <v>1203</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>1400</v>
+        <v>1417</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>1401</v>
+        <v>1418</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>1402</v>
+        <v>1419</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>1403</v>
+        <v>1420</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>1404</v>
+        <v>1421</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>1458</v>
+        <v>1479</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>1459</v>
+        <v>1480</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>1777</v>
+        <v>1799</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>4777</v>
+        <v>4805</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>4778</v>
+        <v>4806</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>6037</v>
+        <v>6067</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>6038</v>
+        <v>6068</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>6039</v>
+        <v>6069</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>7764</v>
+        <v>7798</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>7765</v>
+        <v>7799</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>7766</v>
+        <v>7800</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>9141</v>
+        <v>9172</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>9142</v>
+        <v>9173</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>

--- a/data_output/shift_kosong.xlsx
+++ b/data_output/shift_kosong.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="kosong" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="kosong" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>6067</v>
+        <v>6065</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>6068</v>
+        <v>6066</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>6069</v>
+        <v>6067</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>7798</v>
+        <v>7796</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>7799</v>
+        <v>7797</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>7800</v>
+        <v>7798</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>9172</v>
+        <v>9170</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>9173</v>
+        <v>9171</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
